--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Riis\Documents\GitHub\fagprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emill\OneDrive\Dokumenter\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B6FDE2-75A4-4494-A3EA-DE88C49452B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82FDAE9-9F00-4D49-8B5C-4F0C1EADCB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="405" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
+    <workbookView xWindow="6135" yWindow="2775" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Item</t>
   </si>
@@ -58,6 +57,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>WS2812B</t>
+  </si>
+  <si>
+    <t>100 nF kondensator</t>
   </si>
 </sst>
 </file>
@@ -239,7 +244,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,7 +543,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,18 +616,30 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.44040000000000001</v>
+      </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -834,7 +851,7 @@
       </c>
       <c r="D31" s="10">
         <f>SUM(D2:D30)</f>
-        <v>0</v>
+        <v>22.02</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emill\OneDrive\Dokumenter\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82FDAE9-9F00-4D49-8B5C-4F0C1EADCB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9778C-28F4-4600-8AD0-7836189E9E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6135" yWindow="2775" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>100 nF kondensator</t>
+  </si>
+  <si>
+    <t>:)</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE26E691-CEEA-43E6-B904-AE4C2C9F0853}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -552,7 +555,7 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -577,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -586,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -595,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -604,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -630,7 +633,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -645,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -654,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -663,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -672,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -682,8 +685,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -692,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emill\OneDrive\Dokumenter\GitHub\fagprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Riis\Documents\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9778C-28F4-4600-8AD0-7836189E9E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AF781-57FE-4608-9E48-37379B8D0E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="2775" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
+    <workbookView xWindow="15975" yWindow="2160" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Item</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>:)</t>
+  </si>
+  <si>
+    <t>74AHC125</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,7 +549,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,12 +652,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.432</v>
+      </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.296</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,6 +706,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -857,7 +869,7 @@
       </c>
       <c r="D31" s="10">
         <f>SUM(D2:D30)</f>
-        <v>22.02</v>
+        <v>23.315999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Riis\Documents\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AF781-57FE-4608-9E48-37379B8D0E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC204393-40D4-4E5A-8994-96B690D21456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="2160" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
+    <workbookView xWindow="8145" yWindow="1470" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>74AHC125</t>
+  </si>
+  <si>
+    <t>Wires (A bunch)</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +590,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="8">
@@ -667,7 +675,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Riis\Documents\GitHub\fagprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emill\OneDrive\Dokumenter\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC204393-40D4-4E5A-8994-96B690D21456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B7ECE-FFB4-4FDD-AE1A-F45C99626E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="1470" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
+    <workbookView xWindow="6135" yWindow="2775" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -75,13 +75,19 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Links:</t>
+  </si>
+  <si>
+    <t>https://www.mouser.dk/ProductDetail/SparkFun/COM-16346?qs=OlC7AqGiEDnspdV1Dchx7w%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +111,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,10 +237,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -238,8 +253,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,13 +573,14 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="95.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -576,6 +595,9 @@
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,6 +665,9 @@
         <f t="shared" si="0"/>
         <v>22.02</v>
       </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -883,7 +908,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{B8BE73E4-60CA-43A4-88B9-658C999BF08F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Riis\Documents\GitHub\fagprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emilb\Documents\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC204393-40D4-4E5A-8994-96B690D21456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB8544-4582-4DF3-A158-73CCE416889F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="1470" windowWidth="28800" windowHeight="15435" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -65,9 +65,6 @@
     <t>100 nF kondensator</t>
   </si>
   <si>
-    <t>:)</t>
-  </si>
-  <si>
     <t>74AHC125</t>
   </si>
   <si>
@@ -75,13 +72,41 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>BAS21 DIODE</t>
+  </si>
+  <si>
+    <t>LT8315</t>
+  </si>
+  <si>
+    <t>MODSTANDE</t>
+  </si>
+  <si>
+    <t>KONDENSATORER</t>
+  </si>
+  <si>
+    <t>RS3K DIODE</t>
+  </si>
+  <si>
+    <t>SMAJ200A DIODE</t>
+  </si>
+  <si>
+    <t>SUMIDA 11328-T060</t>
+  </si>
+  <si>
+    <t>IPD80R450P7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$kr.-406]_-;\-* #,##0.00\ [$kr.-406]_-;_-* &quot;-&quot;??\ [$kr.-406]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +130,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,10 +261,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -238,9 +277,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,19 +597,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE26E691-CEEA-43E6-B904-AE4C2C9F0853}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,20 +624,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="8">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -600,208 +643,234 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
       <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12">
+        <f>B5*C5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D11" si="1">B6*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.78</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12">
+        <f>B16*C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B17" s="1">
         <v>50</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C17" s="14">
         <v>0.44040000000000001</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
+      <c r="D17" s="12">
+        <f>B17*C17</f>
         <v>22.02</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f>B18*C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.432</v>
+      </c>
+      <c r="D19" s="12">
+        <f>B19*C19</f>
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B20*C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+        <f>B21*C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B22*C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -810,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -819,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -828,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -837,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -846,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -855,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -864,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -873,16 +942,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="10">
         <f>SUM(D2:D30)</f>
-        <v>23.315999999999999</v>
+        <v>157.096</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emilb\Documents\GitHub\fagprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB8544-4582-4DF3-A158-73CCE416889F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6A1E0-2FE8-47D8-8C2C-927DF9A1D313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC935F5-E543-4D70-B79F-3F6A68A1E400}"/>
   </bookViews>
